--- a/AccController/AccController.Web/Content/templates/export/result/ais/ThemDonViUser.xlsx
+++ b/AccController/AccController.Web/Content/templates/export/result/ais/ThemDonViUser.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\AccController\AccController\AccController.Web\Content\templates\import\ais\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\AccController\AccController\AccController.Web\Content\templates\export\result\ais\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="ThemDonViUser" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Entities" comment="{Field:&quot;Entities&quot;}" localSheetId="0">ThemDonViUser!$A$4:$D$4</definedName>
+    <definedName name="Entities" comment="{Field:&quot;Entities&quot;}" localSheetId="0">ThemDonViUser!$A$4:$G$4</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Email</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>{Field:"NewRole"}</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>{Field:"Id"}</t>
+  </si>
+  <si>
+    <t>kq</t>
+  </si>
+  <si>
+    <t>Note</t>
   </si>
 </sst>
 </file>
@@ -5943,10 +5955,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A3:D4"/>
+  <dimension ref="A3:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5954,11 +5966,11 @@
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="45.28515625" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="4" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -5971,8 +5983,17 @@
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -5985,6 +6006,11 @@
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
